--- a/Final/Culminating/Planning/WatsonCookbooksJW-GANT.xlsx
+++ b/Final/Culminating/Planning/WatsonCookbooksJW-GANT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jijwa\OneDrive\Documents\Coding\Java\Online\Final\Culminating\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25456C1-C3E8-47CE-98BB-8D96FF8AAF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908D889-5BAC-4C47-BB62-EFB00D463571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{296D7B54-73C1-49E9-AA79-68A14CCD6C8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GANTT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,12 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,8 +157,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -173,19 +179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -488,49 +481,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB72D-2152-4D23-9A13-D7E65BC23AE3}">
-  <dimension ref="C4:P41"/>
+  <dimension ref="C1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,669 +855,1012 @@
     <col min="4" max="22" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="1" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="31" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="29" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="U6" s="20"/>
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C19" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C23" s="11" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="12"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="12"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="12"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="12"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="14"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="11" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="12"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33" s="11" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="12"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="14"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35" s="11" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="12"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C35" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="14"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="14"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C37" s="11" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="12"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C37" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="14"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C39" s="11" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C39" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="3:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="8" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="7"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="3:22" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="21">
+      <c r="D41" s="27"/>
+      <c r="E41" s="28">
         <v>45075</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="28">
         <v>45076</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="28">
         <v>45077</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="28">
         <v>45078</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="28">
         <v>45079</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="28">
+        <v>45080</v>
+      </c>
+      <c r="K41" s="28">
+        <v>45081</v>
+      </c>
+      <c r="L41" s="27">
         <v>45082</v>
       </c>
-      <c r="K41" s="21">
+      <c r="M41" s="27">
         <v>45083</v>
       </c>
-      <c r="L41" s="7">
+      <c r="N41" s="27">
         <v>45084</v>
       </c>
-      <c r="M41" s="22">
+      <c r="O41" s="27">
         <v>45085</v>
       </c>
-      <c r="N41" s="7">
+      <c r="P41" s="27">
         <v>45086</v>
       </c>
-      <c r="O41" s="22">
+      <c r="Q41" s="27">
         <v>45087</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="27">
         <v>45088</v>
       </c>
+      <c r="S41" s="27">
+        <v>45089</v>
+      </c>
+      <c r="T41" s="27">
+        <v>45090</v>
+      </c>
+      <c r="U41" s="27">
+        <v>45091</v>
+      </c>
+      <c r="V41" s="29"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1527,6 +1868,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004213A7627BCC7F48A803BCA127D4E3F8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05450ba0d768e335791f780985c89413">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fde93977-6714-4609-866c-c1ad0a90f095" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f717ff057fda1c062910848d5516544" ns3:_="">
     <xsd:import namespace="fde93977-6714-4609-866c-c1ad0a90f095"/>
@@ -1658,15 +2008,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1674,6 +2015,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D02B45-1DB4-47A3-99CD-2EC094F5CCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD37D2D-815A-4B31-8635-E6884F873B47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,14 +2036,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D02B45-1DB4-47A3-99CD-2EC094F5CCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Final/Culminating/Planning/WatsonCookbooksJW-GANT.xlsx
+++ b/Final/Culminating/Planning/WatsonCookbooksJW-GANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jijwa\OneDrive\Documents\Coding\Java\Online\Final\Culminating\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908D889-5BAC-4C47-BB62-EFB00D463571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB7C83-BE1F-4953-9982-80915F333DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{296D7B54-73C1-49E9-AA79-68A14CCD6C8F}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -492,34 +492,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,6 +514,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB72D-2152-4D23-9A13-D7E65BC23AE3}">
-  <dimension ref="C1:V44"/>
+  <dimension ref="C4:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,1007 +854,859 @@
     <col min="4" max="22" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="34" t="s">
+      <c r="U6" s="33"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="12"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="28"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="30" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C11" s="34" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C13" s="30" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="34" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="30" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="34" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="30" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C23" s="34" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="12"/>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="30" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C27" s="34" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C29" s="30" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C31" s="34" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="12"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="30"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="12"/>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C33" s="30" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="12"/>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="26"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="12"/>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C35" s="34" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="12"/>
-    </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="30"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="12"/>
-    </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C37" s="30" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="12"/>
-    </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="26"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="12"/>
-    </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C39" s="34" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="10"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
       <c r="U39" s="37"/>
-      <c r="V39" s="12"/>
-    </row>
-    <row r="40" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="7"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="12"/>
-    </row>
-    <row r="41" spans="3:22" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="20"/>
+    </row>
+    <row r="41" spans="3:21" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28">
+      <c r="D41" s="21"/>
+      <c r="E41" s="22">
         <v>45075</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="22">
         <v>45076</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="22">
         <v>45077</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="22">
         <v>45078</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="22">
         <v>45079</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="22">
         <v>45080</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="22">
         <v>45081</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L41" s="21">
         <v>45082</v>
       </c>
-      <c r="M41" s="27">
+      <c r="M41" s="21">
         <v>45083</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="21">
         <v>45084</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O41" s="21">
         <v>45085</v>
       </c>
-      <c r="P41" s="27">
+      <c r="P41" s="21">
         <v>45086</v>
       </c>
-      <c r="Q41" s="27">
+      <c r="Q41" s="21">
         <v>45087</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="21">
         <v>45088</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S41" s="21">
         <v>45089</v>
       </c>
-      <c r="T41" s="27">
+      <c r="T41" s="21">
         <v>45090</v>
       </c>
-      <c r="U41" s="27">
-        <v>45091</v>
-      </c>
-      <c r="V41" s="29"/>
-    </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="U41" s="21">
+        <v>45093</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1868,15 +1719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004213A7627BCC7F48A803BCA127D4E3F8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05450ba0d768e335791f780985c89413">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fde93977-6714-4609-866c-c1ad0a90f095" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f717ff057fda1c062910848d5516544" ns3:_="">
     <xsd:import namespace="fde93977-6714-4609-866c-c1ad0a90f095"/>
@@ -2008,6 +1850,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2015,14 +1866,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D02B45-1DB4-47A3-99CD-2EC094F5CCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD37D2D-815A-4B31-8635-E6884F873B47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2036,6 +1879,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D02B45-1DB4-47A3-99CD-2EC094F5CCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
